--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>2.311278985561</v>
+        <v>1.522286817263333</v>
       </c>
       <c r="R2">
-        <v>20.801510870049</v>
+        <v>13.70058135537</v>
       </c>
       <c r="S2">
-        <v>0.2317766198924523</v>
+        <v>0.1716751097869208</v>
       </c>
       <c r="T2">
-        <v>0.2317766198924523</v>
+        <v>0.1716751097869208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>2.005900997221333</v>
+        <v>2.005900997221334</v>
       </c>
       <c r="R3">
         <v>18.053108974992</v>
       </c>
       <c r="S3">
-        <v>0.2011531086810851</v>
+        <v>0.2262144492184067</v>
       </c>
       <c r="T3">
-        <v>0.2011531086810851</v>
+        <v>0.2262144492184067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>2.804603008965333</v>
+        <v>2.804603008965334</v>
       </c>
       <c r="R4">
         <v>25.241427080688</v>
       </c>
       <c r="S4">
-        <v>0.281247486616336</v>
+        <v>0.316287656184546</v>
       </c>
       <c r="T4">
-        <v>0.281247486616336</v>
+        <v>0.316287656184546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>0.9250031813890001</v>
+        <v>0.6092385029033334</v>
       </c>
       <c r="R5">
-        <v>8.325028632501001</v>
+        <v>5.483146526130001</v>
       </c>
       <c r="S5">
-        <v>0.09275994465032919</v>
+        <v>0.06870655758576162</v>
       </c>
       <c r="T5">
-        <v>0.09275994465032919</v>
+        <v>0.06870655758576164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>0.8027870350453334</v>
@@ -818,10 +818,10 @@
         <v>7.225083315408001</v>
       </c>
       <c r="S6">
-        <v>0.08050402683479091</v>
+        <v>0.09053389335965302</v>
       </c>
       <c r="T6">
-        <v>0.08050402683479088</v>
+        <v>0.09053389335965302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>1.122437716101333</v>
@@ -880,10 +880,10 @@
         <v>10.101939444912</v>
       </c>
       <c r="S7">
-        <v>0.1125588133250065</v>
+        <v>0.1265823338647119</v>
       </c>
       <c r="T7">
-        <v>0.1125588133250065</v>
+        <v>0.126582333864712</v>
       </c>
     </row>
   </sheetData>
